--- a/!SES/60runs/outputSES_2.xlsx
+++ b/!SES/60runs/outputSES_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hendrakusumah/Documents/GitHub/Segregation/!SES/60runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CD1C6A-9097-ED43-8964-482D9517D544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F45BE6-1BEF-1840-B0A5-4CC26EC5715B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{75B53534-02DD-5445-B43D-90D569C7E6F5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{75B53534-02DD-5445-B43D-90D569C7E6F5}"/>
   </bookViews>
   <sheets>
     <sheet name="SS" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{273C916C-A057-FF47-A4F4-C896ADC6709A}" name="Schelling_on_GIS-@SES experiment_ethnic-SES_2-spreadsheet" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/hendrakusumah/Documents/GitHub/Segregation/!SES/60runs/Schelling_on_GIS-@SES experiment_ethnic-SES_2-spreadsheet.csv" comma="1">
+    <textPr sourceFile="/Users/hendrakusumah/Documents/GitHub/Segregation/!SES/60runs/Schelling_on_GIS-@SES experiment_ethnic-SES_2-spreadsheet.csv" comma="1">
       <textFields count="361">
         <textField/>
         <textField/>
@@ -411,7 +411,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{8F285AF2-40A5-2347-8EB3-EB55E97EBB61}" name="Schelling_on_GIS-@SES experiment_ethnic-SES_2-table" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/hendrakusumah/Documents/GitHub/Segregation/!SES/60runs/Schelling_on_GIS-@SES experiment_ethnic-SES_2-table.csv" comma="1">
+    <textPr sourceFile="/Users/hendrakusumah/Documents/GitHub/Segregation/!SES/60runs/Schelling_on_GIS-@SES experiment_ethnic-SES_2-table.csv" comma="1">
       <textFields count="29">
         <textField/>
         <textField/>
@@ -646,6 +646,4282 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Dissimilarity Index on Ethnic-SES Scenario </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ID" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Beta SES = 4,8,12)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ID" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4798154635956851E-2"/>
+          <c:y val="1.6036553824932468E-2"/>
+          <c:w val="0.93438038086648856"/>
+          <c:h val="0.75718719466636009"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$Y$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EGJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$Y$8:$Y$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.56899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.441</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.54600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.46899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.45800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.45800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0199-3344-8587-F1A00CDC3B49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$Z$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CHN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$Z$8:$Z$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0199-3344-8587-F1A00CDC3B49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$AA$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EGS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$AA$8:$AA$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.40699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.40699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.49099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.496</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.38300000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0199-3344-8587-F1A00CDC3B49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$AB$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$AB$8:$AB$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0199-3344-8587-F1A00CDC3B49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="604105375"/>
+        <c:axId val="604107023"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="604105375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>run number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604107023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="604107023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dissimilarity Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604105375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Simpson Index on Ethnic-SES Scenario </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ID" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Beta SES = 4,8,12)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ID" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$X$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>simpson-index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$X$8:$X$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16C3-FA49-AB8E-A5AFC38C88FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="608392431"/>
+        <c:axId val="273384719"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="608392431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>run number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273384719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="273384719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Simpson Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608392431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Moran-I on Ethnic-SES Scenario </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ID" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(Beta SES = 4,8,12)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ID" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$AC$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>moranI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$AC$8:$AC$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0E5-FA4D-8AB9-A5B567FF80CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="380489775"/>
+        <c:axId val="380340559"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="380489775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>run number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380340559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="380340559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Moran-I</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380489775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD45360-6DD6-D6AF-528D-318EED05DC16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADBAA7A-925A-F8D4-AE4F-FAAECD635154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC29467-B6C6-4362-AED7-DF4EF30D3D80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -955,7 +5231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46B0F38-DB74-6B4F-ACF5-DF6B88D1852A}">
   <dimension ref="A1:MW32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DT18" zoomScale="112" workbookViewId="0">
+    <sheetView topLeftCell="DT18" zoomScale="112" workbookViewId="0">
       <selection activeCell="DR17" sqref="DR17:FY32"/>
     </sheetView>
   </sheetViews>
@@ -10777,8 +15053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E3C355-847A-3C4C-AC87-D63753770BC3}">
   <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T73" sqref="T73"/>
+    <sheetView tabSelected="1" topLeftCell="N43" workbookViewId="0">
+      <selection activeCell="AI68" sqref="AI68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16294,5 +20570,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>